--- a/Jeux de donnees/STEP/jdd-Modification.xlsx
+++ b/Jeux de donnees/STEP/jdd-Modification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/STEP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{F8FC3C97-02FF-AE48-9689-FEA987C68905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A84C87CB-6422-A64A-88B5-493A3E27526F}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{F8FC3C97-02FF-AE48-9689-FEA987C68905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4925C82-6DCC-F647-A2FD-0870581CCE3C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{4DA722B0-B969-BA48-B4D5-5F273268CD81}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DA722B0-B969-BA48-B4D5-5F273268CD81}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>${BirthDate}</t>
   </si>
   <si>
-    <t>UC1_UAT</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -71,21 +68,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>UC2_UAT</t>
-  </si>
-  <si>
-    <t>UC3_UAT</t>
-  </si>
-  <si>
-    <t>UC4_UAT</t>
-  </si>
-  <si>
-    <t>UC5_UAT</t>
-  </si>
-  <si>
-    <t>UC6_UAT</t>
-  </si>
-  <si>
     <t>UC1_UAT@gg.com</t>
   </si>
   <si>
@@ -171,38 +153,37 @@
   </si>
   <si>
     <t>UC22_UAT@gg.com</t>
+  </si>
+  <si>
+    <t>UC1_STEP_Modify_UAT</t>
+  </si>
+  <si>
+    <t>UC2_STEP_Modify_UAT</t>
+  </si>
+  <si>
+    <t>UC3_STEP_Modify_UAT</t>
+  </si>
+  <si>
+    <t>UC4_STEP_Modify_UAT</t>
+  </si>
+  <si>
+    <t>UC5_STEP_Modify_UAT</t>
+  </si>
+  <si>
+    <t>UC6_STEP_Modify_UAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow (Corps)"/>
     </font>
     <font>
       <b/>
@@ -222,31 +203,35 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="Aptos Narrow (Corps)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -305,48 +290,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
@@ -762,315 +744,318 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F68739-BB33-5C46-BACF-9BD323521F18}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="43.5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15.1640625" style="19" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="12" t="s">
+      <c r="Q1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:19" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="15" t="s">
+      <c r="Q3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="18" t="s">
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="1" t="s">
-        <v>18</v>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:19" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="1" t="s">
-        <v>19</v>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
     </row>
-    <row r="6" spans="1:19" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:19" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="1" t="s">
-        <v>20</v>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:19" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="1" t="s">
-        <v>21</v>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
     </row>
-    <row r="14" spans="1:19" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C15:H16 G2:K2 F3:K7">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1082,11 +1067,11 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+  <conditionalFormatting sqref="G2:K2 F3:K7 C15:H16">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1098,10 +1083,6 @@
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{045F9C45-D84E-DC42-B4EA-14CB7C352466}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{32D95E5D-97A5-074E-A50D-BC08C8B90857}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
